--- a/database/uom.xlsx
+++ b/database/uom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Go\src\github.com\AlberthWu\mikiwa\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD229051-8C98-45A2-9C8D-9121AA4F458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70B6A6C-C4B2-4114-B4AE-E7451B9139A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="11290" windowHeight="13770" xr2:uid="{241B0261-4139-4010-B301-282F878517A4}"/>
+    <workbookView xWindow="71880" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{241B0261-4139-4010-B301-282F878517A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="11">
   <si>
     <t>product</t>
   </si>
@@ -75,7 +75,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -106,14 +116,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,13 +459,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4F554B-DDC8-4F34-A3B2-B0FD46011ADE}">
-  <dimension ref="A2:U13"/>
+  <dimension ref="A2:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -717,25 +733,25 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <f>_xlfn.XLOOKUP(C9,$D$3:$D$6,$E$3:$E$6)*B9</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9">
         <f>_xlfn.XLOOKUP(E9,$D$3:$D$6,$E$3:$E$6)*D9</f>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
       <c r="H9">
         <f>_xlfn.XLOOKUP(G9,$D$3:$D$6,$E$3:$E$6)*F9</f>
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
@@ -788,11 +804,11 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>_xlfn.XLOOKUP(C9,$D$3:$D$6,$C$3:$C$6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <f>IF(C11&gt;G11,C11-1,C11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <f>_xlfn.XLOOKUP(G9,$D$3:$D$6,$C$3:$C$6)</f>
@@ -818,19 +834,19 @@
       </c>
       <c r="C12" s="1" t="str">
         <f>_xlfn.XLOOKUP(C11,$C$3:$C$6,$D$3:$D$6)</f>
-        <v>lsn</v>
+        <v>ball</v>
       </c>
       <c r="D12" s="1">
         <f>IF(C11=G11,1,_xlfn.XLOOKUP(C12,$D$3:$D$6,$E$3:$E$6))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>_xlfn.XLOOKUP(E11,$C$3:$C$6,$D$3:$D$6)</f>
-        <v>lsn</v>
+        <v>ikat</v>
       </c>
       <c r="F12" s="1">
         <f>_xlfn.XLOOKUP(C12,$D$3:$D$6,$H$3:$H$6)*B12</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1" t="str">
         <f>_xlfn.XLOOKUP(G11,$C$3:$C$6,$D$3:$D$6)</f>
@@ -838,7 +854,7 @@
       </c>
       <c r="H12" s="1">
         <f>_xlfn.XLOOKUP(G12,$D$3:$D$6,$F$3:$F$6)*F12</f>
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>4</v>
@@ -878,11 +894,11 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>_xlfn.XLOOKUP(C12,$D$3:$D$6,$A$3:$A$6)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <f>_xlfn.XLOOKUP(E12,$D$3:$D$6,$A$3:$A$6)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <f>_xlfn.XLOOKUP(G12,$D$3:$D$6,$A$3:$A$6)</f>
@@ -891,6 +907,66 @@
       <c r="I13">
         <f>_xlfn.XLOOKUP(I12,$D$3:$D$6,$A$3:$A$6)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
